--- a/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\Example\Navigation-test\Assets\NumericalSimulation\Res\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6CCF6-3F78-48C6-BE1B-E5EACAFF572D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83698932-6D95-4D8E-A181-53BBF82EA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1212" yWindow="2976" windowWidth="24768" windowHeight="9696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,21 +76,12 @@
     <t>远程杀伤</t>
   </si>
   <si>
-    <t>作战意志</t>
-  </si>
-  <si>
-    <t>疲劳值</t>
-  </si>
-  <si>
     <t>价格</t>
   </si>
   <si>
     <t>unitName</t>
   </si>
   <si>
-    <t>totalHP</t>
-  </si>
-  <si>
     <t>totalTroops</t>
   </si>
   <si>
@@ -137,12 +128,6 @@
   </si>
   <si>
     <t>rangeDamage</t>
-  </si>
-  <si>
-    <t>morale</t>
-  </si>
-  <si>
-    <t>fatigue</t>
   </si>
   <si>
     <t>cost</t>
@@ -184,6 +169,26 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>最高作战意志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximumMorale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximumFatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -537,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -550,12 +555,12 @@
     <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" customWidth="1"/>
     <col min="19" max="19" width="13.5546875" customWidth="1"/>
-    <col min="20" max="20" width="11.109375" customWidth="1"/>
+    <col min="20" max="21" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -612,149 +617,149 @@
         <v>17</v>
       </c>
       <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
         <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -762,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>6000</v>
@@ -827,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>11200</v>
@@ -841,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>4800</v>
@@ -855,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>8000</v>
@@ -869,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>8000</v>
@@ -883,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>8400</v>
@@ -897,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>4000</v>

--- a/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\Example\Navigation-test\Assets\NumericalSimulation\Res\Excel2Json2Cs\Output\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\Navigation-test\Assets\NumericalSimulation\Res\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83698932-6D95-4D8E-A181-53BBF82EA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB8BDF6-2503-414B-B745-5C0F5EAB1BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1212" yWindow="2976" windowWidth="24768" windowHeight="9696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>兵种名称</t>
   </si>
@@ -189,6 +189,48 @@
   <si>
     <t>maximumFatigue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步行骑士团</t>
+  </si>
+  <si>
+    <t>扈从步行骑士团</t>
+  </si>
+  <si>
+    <t>高山矮人辅助勇士</t>
+  </si>
+  <si>
+    <t>高等精灵辅助弓箭手</t>
+  </si>
+  <si>
+    <t>骑士团</t>
+  </si>
+  <si>
+    <t>扈从骑士团</t>
+  </si>
+  <si>
+    <t>弩炮</t>
+  </si>
+  <si>
+    <t>矮人勇士</t>
+  </si>
+  <si>
+    <t>矮人先锋勇士</t>
+  </si>
+  <si>
+    <t>矮人火枪队</t>
+  </si>
+  <si>
+    <t>矮人铁炮队</t>
+  </si>
+  <si>
+    <t>矮人风琴炮</t>
+  </si>
+  <si>
+    <t>矮人战列坦克</t>
+  </si>
+  <si>
+    <t>矮人补给装甲车</t>
   </si>
 </sst>
 </file>
@@ -540,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -776,7 +818,7 @@
         <v>200</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -788,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -840,6 +882,57 @@
       <c r="D5">
         <v>160</v>
       </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <v>-1</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>-1</v>
+      </c>
+      <c r="S5">
+        <v>-1</v>
+      </c>
+      <c r="T5">
+        <v>80</v>
+      </c>
+      <c r="U5">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -909,6 +1002,118 @@
       </c>
       <c r="D10">
         <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>204</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\Navigation-test\Assets\NumericalSimulation\Res\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB8BDF6-2503-414B-B745-5C0F5EAB1BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C23F1CE-1917-4BDC-9B04-5F503FE97754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>兵种名称</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>矮人补给装甲车</t>
+  </si>
+  <si>
+    <t>精灵参训新兵</t>
   </si>
 </sst>
 </file>
@@ -582,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -812,31 +815,31 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -874,64 +877,64 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>11200</v>
+        <v>8000</v>
       </c>
       <c r="D5">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <v>-1</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>-1</v>
+      </c>
+      <c r="S5">
+        <v>-1</v>
+      </c>
+      <c r="T5">
         <v>40</v>
       </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>26</v>
-      </c>
-      <c r="J5">
-        <v>22</v>
-      </c>
-      <c r="K5">
-        <v>40</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>-1</v>
-      </c>
-      <c r="P5">
-        <v>-1</v>
-      </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-      <c r="R5">
-        <v>-1</v>
-      </c>
-      <c r="S5">
-        <v>-1</v>
-      </c>
-      <c r="T5">
-        <v>80</v>
-      </c>
       <c r="U5">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -939,13 +942,64 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>4800</v>
+        <v>12800</v>
       </c>
       <c r="D6">
         <v>160</v>
+      </c>
+      <c r="E6">
+        <v>52</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>48</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6">
+        <v>-1</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6">
+        <v>-1</v>
+      </c>
+      <c r="T6">
+        <v>80</v>
+      </c>
+      <c r="U6">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -953,10 +1007,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="D7">
         <v>160</v>
@@ -967,10 +1021,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
-        <v>8000</v>
+        <v>9600</v>
       </c>
       <c r="D8">
         <v>160</v>
@@ -981,13 +1035,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>8400</v>
+        <v>9600</v>
       </c>
       <c r="D9">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -995,124 +1049,252 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>4000</v>
+        <v>9600</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>4800</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>105</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>106</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>200</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C19">
+        <v>10000</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>22</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>-1</v>
+      </c>
+      <c r="P19">
+        <v>-1</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>-1</v>
+      </c>
+      <c r="S19">
+        <v>-1</v>
+      </c>
+      <c r="T19">
+        <v>40</v>
+      </c>
+      <c r="U19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>201</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C20">
+        <v>13000</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>36</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <v>40</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>-1</v>
+      </c>
+      <c r="P20">
+        <v>-1</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>-1</v>
+      </c>
+      <c r="S20">
+        <v>-1</v>
+      </c>
+      <c r="T20">
+        <v>40</v>
+      </c>
+      <c r="U20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>202</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>203</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>204</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>205</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>206</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\Navigation-test\Assets\NumericalSimulation\Res\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C23F1CE-1917-4BDC-9B04-5F503FE97754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B36E53B-E310-436E-AD85-2FFA3CE34B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>繁茂之巅神圣卫士</t>
   </si>
   <si>
-    <t>驼鹿骑士</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -234,6 +231,10 @@
   </si>
   <si>
     <t>精灵参训新兵</t>
+  </si>
+  <si>
+    <t>驼鹿骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -588,7 +589,7 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -605,7 +606,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -662,10 +663,10 @@
         <v>17</v>
       </c>
       <c r="T1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" t="s">
         <v>49</v>
-      </c>
-      <c r="U1" t="s">
-        <v>50</v>
       </c>
       <c r="V1" t="s">
         <v>18</v>
@@ -673,13 +674,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
@@ -730,10 +731,10 @@
         <v>35</v>
       </c>
       <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
         <v>52</v>
-      </c>
-      <c r="U2" t="s">
-        <v>53</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>36</v>
@@ -741,70 +742,70 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -815,31 +816,31 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -877,34 +878,34 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="D5">
         <v>200</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>16</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -963,13 +964,13 @@
         <v>6</v>
       </c>
       <c r="I6">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J6">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -1010,7 +1011,7 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>6400</v>
+        <v>8000</v>
       </c>
       <c r="D7">
         <v>160</v>
@@ -1024,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="C8">
-        <v>9600</v>
+        <v>10400</v>
       </c>
       <c r="D8">
         <v>160</v>
@@ -1038,7 +1039,7 @@
         <v>42</v>
       </c>
       <c r="C9">
-        <v>9600</v>
+        <v>10400</v>
       </c>
       <c r="D9">
         <v>160</v>
@@ -1063,10 +1064,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C11">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="D11">
         <v>80</v>
@@ -1077,7 +1078,64 @@
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>11200</v>
+      </c>
+      <c r="D12">
+        <v>140</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>52</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12">
+        <v>-1</v>
+      </c>
+      <c r="S12">
+        <v>-1</v>
+      </c>
+      <c r="T12">
+        <v>80</v>
+      </c>
+      <c r="U12">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1085,7 +1143,64 @@
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>14000</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>24</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>36</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <v>-1</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
+        <v>-1</v>
+      </c>
+      <c r="S13">
+        <v>-1</v>
+      </c>
+      <c r="T13">
+        <v>80</v>
+      </c>
+      <c r="U13">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1093,7 +1208,64 @@
         <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>11000</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <v>28</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>-1</v>
+      </c>
+      <c r="P14">
+        <v>-1</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
+        <v>-1</v>
+      </c>
+      <c r="S14">
+        <v>-1</v>
+      </c>
+      <c r="T14">
+        <v>40</v>
+      </c>
+      <c r="U14">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -1101,7 +1273,7 @@
         <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1109,7 +1281,7 @@
         <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1117,7 +1289,7 @@
         <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -1125,7 +1297,7 @@
         <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1133,34 +1305,34 @@
         <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="D19">
         <v>200</v>
       </c>
       <c r="E19">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
       <c r="G19">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>14</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K19">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -1198,7 +1370,7 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20">
         <v>13000</v>
@@ -1213,16 +1385,16 @@
         <v>16</v>
       </c>
       <c r="G20">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>4</v>
       </c>
       <c r="I20">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J20">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K20">
         <v>40</v>
@@ -1263,7 +1435,7 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -1271,7 +1443,7 @@
         <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -1279,7 +1451,7 @@
         <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -1287,7 +1459,7 @@
         <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -1295,7 +1467,7 @@
         <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\Navigation-test\Assets\NumericalSimulation\Res\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B36E53B-E310-436E-AD85-2FFA3CE34B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C83125-E39D-4C63-8359-B9D5F58C21D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>兵种名称</t>
   </si>
@@ -73,9 +73,6 @@
     <t>精度</t>
   </si>
   <si>
-    <t>远程杀伤</t>
-  </si>
-  <si>
     <t>价格</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
   </si>
   <si>
     <t>accuracy</t>
-  </si>
-  <si>
-    <t>rangeDamage</t>
   </si>
   <si>
     <t>cost</t>
@@ -234,6 +228,22 @@
   </si>
   <si>
     <t>驼鹿骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程杀伤（普通）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程杀伤（破甲）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeArmor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -600,13 +610,15 @@
     <col min="8" max="8" width="17.109375" customWidth="1"/>
     <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="19" max="19" width="13.5546875" customWidth="1"/>
-    <col min="20" max="21" width="14.88671875" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" customWidth="1"/>
+    <col min="20" max="20" width="16.5546875" customWidth="1"/>
+    <col min="21" max="22" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -660,160 +672,169 @@
         <v>16</v>
       </c>
       <c r="S1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="V2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="T2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>10000</v>
@@ -831,7 +852,7 @@
         <v>36</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>23</v>
@@ -852,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -867,18 +888,21 @@
         <v>-1</v>
       </c>
       <c r="T4">
+        <v>-1</v>
+      </c>
+      <c r="U4">
         <v>30</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>10000</v>
@@ -896,7 +920,7 @@
         <v>50</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>23</v>
@@ -917,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -932,18 +956,21 @@
         <v>-1</v>
       </c>
       <c r="T5">
+        <v>-1</v>
+      </c>
+      <c r="U5">
         <v>40</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>12800</v>
@@ -961,7 +988,7 @@
         <v>42</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I6">
         <v>22</v>
@@ -982,7 +1009,7 @@
         <v>5</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -997,18 +1024,21 @@
         <v>-1</v>
       </c>
       <c r="T6">
+        <v>-1</v>
+      </c>
+      <c r="U6">
         <v>80</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>8000</v>
@@ -1016,13 +1046,67 @@
       <c r="D7">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>12</v>
+      </c>
+      <c r="S7">
+        <v>16</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>30</v>
+      </c>
+      <c r="V7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>10400</v>
@@ -1030,13 +1114,67 @@
       <c r="D8">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>19</v>
+      </c>
+      <c r="S8">
+        <v>20</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>30</v>
+      </c>
+      <c r="V8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>10400</v>
@@ -1044,13 +1182,67 @@
       <c r="D9">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>32</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>16</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>22</v>
+      </c>
+      <c r="S9">
+        <v>21</v>
+      </c>
+      <c r="T9">
+        <v>11</v>
+      </c>
+      <c r="U9">
+        <v>30</v>
+      </c>
+      <c r="V9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>9600</v>
@@ -1058,13 +1250,67 @@
       <c r="D10">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>28</v>
+      </c>
+      <c r="S10">
+        <v>16</v>
+      </c>
+      <c r="T10">
+        <v>20</v>
+      </c>
+      <c r="U10">
+        <v>30</v>
+      </c>
+      <c r="V10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>5200</v>
@@ -1072,13 +1318,16 @@
       <c r="D11">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>11200</v>
@@ -1096,7 +1345,7 @@
         <v>53</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12">
         <v>32</v>
@@ -1117,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1132,18 +1381,21 @@
         <v>-1</v>
       </c>
       <c r="T12">
+        <v>-1</v>
+      </c>
+      <c r="U12">
         <v>80</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>14000</v>
@@ -1161,7 +1413,7 @@
         <v>39</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I13">
         <v>24</v>
@@ -1182,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1197,18 +1449,21 @@
         <v>-1</v>
       </c>
       <c r="T13">
+        <v>-1</v>
+      </c>
+      <c r="U13">
         <v>80</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>11000</v>
@@ -1226,7 +1481,7 @@
         <v>38</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -1247,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1262,50 +1517,122 @@
         <v>-1</v>
       </c>
       <c r="T14">
+        <v>-1</v>
+      </c>
+      <c r="U14">
         <v>40</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>10400</v>
+      </c>
+      <c r="D15">
+        <v>160</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>19</v>
+      </c>
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>19</v>
+      </c>
+      <c r="S15">
+        <v>20</v>
+      </c>
+      <c r="T15">
+        <v>10</v>
+      </c>
+      <c r="U15">
+        <v>30</v>
+      </c>
+      <c r="V15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>11000</v>
@@ -1323,7 +1650,7 @@
         <v>38</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I19">
         <v>16</v>
@@ -1344,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -1359,18 +1686,21 @@
         <v>-1</v>
       </c>
       <c r="T19">
+        <v>-1</v>
+      </c>
+      <c r="U19">
         <v>40</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>13000</v>
@@ -1388,7 +1718,7 @@
         <v>38</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I20">
         <v>20</v>
@@ -1409,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -1424,50 +1754,182 @@
         <v>-1</v>
       </c>
       <c r="T20">
+        <v>-1</v>
+      </c>
+      <c r="U20">
         <v>40</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>8800</v>
+      </c>
+      <c r="D21">
+        <v>160</v>
+      </c>
+      <c r="E21">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="K21">
+        <v>22</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>12</v>
+      </c>
+      <c r="S21">
+        <v>14</v>
+      </c>
+      <c r="T21">
+        <v>20</v>
+      </c>
+      <c r="U21">
+        <v>30</v>
+      </c>
+      <c r="V21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>7200</v>
+      </c>
+      <c r="D22">
+        <v>120</v>
+      </c>
+      <c r="E22">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>22</v>
+      </c>
+      <c r="K22">
+        <v>28</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <v>8</v>
+      </c>
+      <c r="S22">
+        <v>16</v>
+      </c>
+      <c r="T22">
+        <v>36</v>
+      </c>
+      <c r="U22">
+        <v>30</v>
+      </c>
+      <c r="V22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
+++ b/Assets/NumericalSimulation/Res/Excel2Json2Cs/Output/Excel/troopsNumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gameMake\unity\projects\Navigation-test\Assets\NumericalSimulation\Res\Excel2Json2Cs\Output\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C83125-E39D-4C63-8359-B9D5F58C21D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93226F2-88CD-486C-B512-E7329E5571D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1780,7 @@
         <v>28</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>28</v>
@@ -1848,7 +1848,7 @@
         <v>32</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>30</v>
